--- a/biology/Botanique/Sarcophyton_pachyphyllum/Sarcophyton_pachyphyllum.xlsx
+++ b/biology/Botanique/Sarcophyton_pachyphyllum/Sarcophyton_pachyphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarcophyton pachyphyllum est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Sarcophyton. Elle fut décrite en premier lieu par Oakes Ames en 1915[1] puis transférée dans le genre Sarcophyton par Leslie Andrew Garay en 1972. Son nom vernaculaire est en anglais thick-leaved sarcanthus[2] que l'on peut traduire par Sarcanthus à feuilles épaisses. Aucune sous-espèce n'est répertoriée. On la rencontre aux Philippines, jusqu'à une altitude de 500 m, de même qu'en Malaisie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarcophyton pachyphyllum est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Sarcophyton. Elle fut décrite en premier lieu par Oakes Ames en 1915 puis transférée dans le genre Sarcophyton par Leslie Andrew Garay en 1972. Son nom vernaculaire est en anglais thick-leaved sarcanthus que l'on peut traduire par Sarcanthus à feuilles épaisses. Aucune sous-espèce n'est répertoriée. On la rencontre aux Philippines, jusqu'à une altitude de 500 m, de même qu'en Malaisie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidée monopodiale épiphyte avec une tige dressée portant quelques feuilles épaisses et charnues en forme de faucille. Fleurit au printemps sur une branche dressée, rigide et longue de 40 cm très fleuries. Fleurs mesurant entre 5 et 7 mm.
 </t>
